--- a/Income/PFG_inc.xlsx
+++ b/Income/PFG_inc.xlsx
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1624</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.2462</v>
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1477</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0.1149</v>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1709</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0.2536</v>
